--- a/form1_responses.xlsx
+++ b/form1_responses.xlsx
@@ -434,7 +434,16 @@
       </c>
     </row>
     <row r="2">
-      <c r="B2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Emerging Technology Course-I, Communicative English</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/form1_responses.xlsx
+++ b/form1_responses.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Emerging Technology Course-I, Communicative English</t>
+          <t>Mathematics-I for CSE Stream, Engineering Science Course-I, Innovation and Design Thinking</t>
         </is>
       </c>
     </row>

--- a/form1_responses.xlsx
+++ b/form1_responses.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mathematics-I for CSE Stream, Engineering Science Course-I, Innovation and Design Thinking</t>
+          <t>Emerging Technology Course-I</t>
         </is>
       </c>
     </row>
